--- a/AntoniaZlatkova/lesson8/Bug 1.xlsx
+++ b/AntoniaZlatkova/lesson8/Bug 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15990" windowHeight="8490"/>
+    <workbookView windowWidth="19890" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Test case template" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>Център за обучение по софтуерно тестване
 Website: http://skillo-bg.com</t>
@@ -26,6 +26,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>given e-mail is disabled when click on it</t>
+  </si>
+  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -35,9 +38,145 @@
     <t>Description</t>
   </si>
   <si>
+    <t>user cannot automaticly go to page to send e-mail</t>
+  </si>
+  <si>
     <t>Steps to reproduce</t>
   </si>
   <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Load http://automationpractice.com/index.php  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Scrow to the bottom of the page  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Click on given e-mail in the Sotre information section   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expected result</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : New page for sedning an e-mail shown   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: e-mail link disabled     </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7F7F7F"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                                                                                                    </t>
+    </r>
+  </si>
+  <si>
     <t>Attachment</t>
   </si>
   <si>
@@ -47,12 +186,18 @@
     <t>Component</t>
   </si>
   <si>
+    <t>contact section</t>
+  </si>
+  <si>
     <t>Version/Build number (Found in)</t>
   </si>
   <si>
     <t>Environment</t>
   </si>
   <si>
+    <t>Chrome</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -62,7 +207,13 @@
     <t>Author</t>
   </si>
   <si>
+    <t>Antonia</t>
+  </si>
+  <si>
     <t>Audit Log</t>
+  </si>
+  <si>
+    <t>Antonia has created the bug on 31.10.</t>
   </si>
 </sst>
 </file>
@@ -70,12 +221,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +245,22 @@
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -109,7 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,13 +284,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +343,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +390,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -232,30 +420,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -268,187 +443,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,149 +755,149 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -731,11 +906,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,6 +1017,82 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4752975" y="28575"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="4105275"/>
+          <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4362450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="8105775"/>
           <a:ext cx="2247900" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1125,16 +1390,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="39.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="140.857142857143" customWidth="1"/>
+    <col min="2" max="2" width="111.142857142857" customWidth="1"/>
     <col min="3" max="3" width="21.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="41.4285714285714" customWidth="1"/>
   </cols>
@@ -1157,95 +1422,335 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="5">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="12"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="A42:B44"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
